--- a/Resources/ROI/ROI_CT_6.xlsx
+++ b/Resources/ROI/ROI_CT_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\CT-MRI_LandmarkDetection\Resources\ROI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achs/PhD/code/CT-MRI_LandmarkDetection/Resources/ROI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387C7D3-8792-47C5-BD75-82ACFE22D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292842AE-B62B-F549-9506-DC55DE0492DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{0B684366-D9B0-4BDA-9B02-55A4F8149CF0}"/>
+    <workbookView xWindow="33600" yWindow="2120" windowWidth="28800" windowHeight="17500" xr2:uid="{0B684366-D9B0-4BDA-9B02-55A4F8149CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>AH</t>
   </si>
@@ -121,12 +121,30 @@
   <si>
     <t>Median</t>
   </si>
+  <si>
+    <t>JM1</t>
+  </si>
+  <si>
+    <t>JM2</t>
+  </si>
+  <si>
+    <t>Dan1</t>
+  </si>
+  <si>
+    <t>Dan2</t>
+  </si>
+  <si>
+    <t>Bridget1</t>
+  </si>
+  <si>
+    <t>Bridget2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +155,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -161,9 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,635 +527,5603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4FD672-127C-414D-8FED-77B6E88AC27D}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="C3" s="1">
+        <v>757</v>
+      </c>
+      <c r="D3" s="1">
+        <v>449.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F3">
+        <v>757</v>
+      </c>
+      <c r="G3">
+        <v>448</v>
+      </c>
+      <c r="H3">
+        <v>207</v>
+      </c>
+      <c r="I3">
+        <v>757</v>
+      </c>
+      <c r="J3">
+        <v>450</v>
+      </c>
+      <c r="K3">
+        <v>206</v>
+      </c>
+      <c r="L3">
+        <v>757</v>
+      </c>
+      <c r="M3">
+        <v>449</v>
+      </c>
+      <c r="N3">
+        <v>206</v>
+      </c>
+      <c r="O3">
+        <v>756</v>
+      </c>
+      <c r="P3">
+        <v>450</v>
+      </c>
+      <c r="Q3">
+        <v>207</v>
+      </c>
+      <c r="R3">
         <v>758</v>
       </c>
-      <c r="G3" s="1">
+      <c r="S3">
         <v>449</v>
       </c>
-      <c r="H3" s="1">
+      <c r="T3">
         <v>207</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>758</v>
+      </c>
+      <c r="V3">
+        <v>450</v>
+      </c>
+      <c r="W3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="C4" s="1">
+        <v>750.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>478.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>205.5</v>
+      </c>
+      <c r="F4">
         <v>751</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>479</v>
+      </c>
+      <c r="H4">
+        <v>207</v>
+      </c>
+      <c r="I4">
+        <v>750</v>
+      </c>
+      <c r="J4">
         <v>478</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4">
+        <v>206</v>
+      </c>
+      <c r="L4">
+        <v>751</v>
+      </c>
+      <c r="M4">
+        <v>479</v>
+      </c>
+      <c r="N4">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>750</v>
+      </c>
+      <c r="P4">
+        <v>479</v>
+      </c>
+      <c r="Q4">
+        <v>206</v>
+      </c>
+      <c r="R4">
+        <v>751</v>
+      </c>
+      <c r="S4">
+        <v>478</v>
+      </c>
+      <c r="T4">
+        <v>205</v>
+      </c>
+      <c r="U4">
+        <v>749</v>
+      </c>
+      <c r="V4">
+        <v>477</v>
+      </c>
+      <c r="W4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="C5" s="1">
         <v>243</v>
       </c>
-      <c r="G5" s="1">
+      <c r="D5" s="1">
+        <v>474.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>214</v>
+      </c>
+      <c r="F5">
+        <v>243</v>
+      </c>
+      <c r="G5">
+        <v>473</v>
+      </c>
+      <c r="H5">
+        <v>214</v>
+      </c>
+      <c r="I5">
+        <v>243</v>
+      </c>
+      <c r="J5">
         <v>475</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>244</v>
+      </c>
+      <c r="M5">
+        <v>474</v>
+      </c>
+      <c r="N5">
+        <v>213</v>
+      </c>
+      <c r="O5">
+        <v>245</v>
+      </c>
+      <c r="P5">
+        <v>475</v>
+      </c>
+      <c r="Q5">
+        <v>214</v>
+      </c>
+      <c r="R5">
+        <v>243</v>
+      </c>
+      <c r="S5">
+        <v>475</v>
+      </c>
+      <c r="T5">
+        <v>214</v>
+      </c>
+      <c r="U5">
+        <v>242</v>
+      </c>
+      <c r="V5">
+        <v>474</v>
+      </c>
+      <c r="W5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="C6" s="1">
         <v>256</v>
       </c>
-      <c r="G6" s="1">
+      <c r="D6" s="1">
         <v>502</v>
       </c>
-      <c r="H6" s="1">
+      <c r="E6" s="1">
+        <v>208.5</v>
+      </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>501</v>
+      </c>
+      <c r="H6">
+        <v>209</v>
+      </c>
+      <c r="I6">
+        <v>256</v>
+      </c>
+      <c r="J6">
+        <v>502</v>
+      </c>
+      <c r="K6">
+        <v>209</v>
+      </c>
+      <c r="L6">
+        <v>254</v>
+      </c>
+      <c r="M6">
+        <v>502</v>
+      </c>
+      <c r="N6">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>256</v>
+      </c>
+      <c r="P6">
+        <v>501</v>
+      </c>
+      <c r="Q6">
+        <v>208</v>
+      </c>
+      <c r="R6">
+        <v>256</v>
+      </c>
+      <c r="S6">
+        <v>502</v>
+      </c>
+      <c r="T6">
+        <v>208</v>
+      </c>
+      <c r="U6">
+        <v>255</v>
+      </c>
+      <c r="V6">
+        <v>502</v>
+      </c>
+      <c r="W6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="C7" s="1">
+        <v>795.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>524</v>
+      </c>
+      <c r="E7" s="1">
+        <v>246.5</v>
+      </c>
+      <c r="F7">
+        <v>795</v>
+      </c>
+      <c r="G7">
+        <v>524</v>
+      </c>
+      <c r="H7">
+        <v>246</v>
+      </c>
+      <c r="I7">
         <v>797</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7">
         <v>524</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7">
         <v>247</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>795</v>
+      </c>
+      <c r="M7">
+        <v>524</v>
+      </c>
+      <c r="N7">
+        <v>246</v>
+      </c>
+      <c r="O7">
+        <v>795</v>
+      </c>
+      <c r="P7">
+        <v>525</v>
+      </c>
+      <c r="Q7">
+        <v>246</v>
+      </c>
+      <c r="R7">
+        <v>797</v>
+      </c>
+      <c r="S7">
+        <v>524</v>
+      </c>
+      <c r="T7">
+        <v>247</v>
+      </c>
+      <c r="U7">
+        <v>796</v>
+      </c>
+      <c r="V7">
+        <v>525</v>
+      </c>
+      <c r="W7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="C8" s="1">
+        <v>781</v>
+      </c>
+      <c r="D8" s="1">
+        <v>542.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>231</v>
+      </c>
+      <c r="F8">
+        <v>780</v>
+      </c>
+      <c r="G8">
+        <v>542</v>
+      </c>
+      <c r="H8">
+        <v>231</v>
+      </c>
+      <c r="I8">
+        <v>780</v>
+      </c>
+      <c r="J8">
+        <v>543</v>
+      </c>
+      <c r="K8">
+        <v>231</v>
+      </c>
+      <c r="L8">
+        <v>781</v>
+      </c>
+      <c r="M8">
+        <v>542</v>
+      </c>
+      <c r="N8">
+        <v>231</v>
+      </c>
+      <c r="O8">
+        <v>781</v>
+      </c>
+      <c r="P8">
+        <v>544</v>
+      </c>
+      <c r="Q8">
+        <v>231</v>
+      </c>
+      <c r="R8">
         <v>782</v>
       </c>
-      <c r="G8" s="1">
+      <c r="S8">
         <v>542</v>
       </c>
-      <c r="H8" s="1">
+      <c r="T8">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>781</v>
+      </c>
+      <c r="V8">
+        <v>544</v>
+      </c>
+      <c r="W8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="C9" s="1">
         <v>246</v>
       </c>
-      <c r="G9" s="1">
+      <c r="D9" s="1">
+        <v>485</v>
+      </c>
+      <c r="E9" s="1">
+        <v>224</v>
+      </c>
+      <c r="F9">
+        <v>245</v>
+      </c>
+      <c r="G9">
+        <v>485</v>
+      </c>
+      <c r="H9">
+        <v>224</v>
+      </c>
+      <c r="I9">
+        <v>246</v>
+      </c>
+      <c r="J9">
+        <v>485</v>
+      </c>
+      <c r="K9">
+        <v>224</v>
+      </c>
+      <c r="L9">
+        <v>248</v>
+      </c>
+      <c r="M9">
+        <v>485</v>
+      </c>
+      <c r="N9">
+        <v>224</v>
+      </c>
+      <c r="O9">
+        <v>248</v>
+      </c>
+      <c r="P9">
+        <v>485</v>
+      </c>
+      <c r="Q9">
+        <v>224</v>
+      </c>
+      <c r="R9">
+        <v>246</v>
+      </c>
+      <c r="S9">
         <v>486</v>
       </c>
-      <c r="H9" s="1">
+      <c r="T9">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>244</v>
+      </c>
+      <c r="V9">
+        <v>488</v>
+      </c>
+      <c r="W9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="C10" s="1">
+        <v>256</v>
+      </c>
+      <c r="D10" s="1">
+        <v>507</v>
+      </c>
+      <c r="E10" s="1">
+        <v>209</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>508</v>
+      </c>
+      <c r="H10">
+        <v>209</v>
+      </c>
+      <c r="I10">
+        <v>256</v>
+      </c>
+      <c r="J10">
+        <v>507</v>
+      </c>
+      <c r="K10">
+        <v>209</v>
+      </c>
+      <c r="L10">
         <v>255</v>
       </c>
-      <c r="G10" s="1">
+      <c r="M10">
+        <v>507</v>
+      </c>
+      <c r="N10">
+        <v>208</v>
+      </c>
+      <c r="O10">
+        <v>256</v>
+      </c>
+      <c r="P10">
+        <v>507</v>
+      </c>
+      <c r="Q10">
+        <v>209</v>
+      </c>
+      <c r="R10">
+        <v>255</v>
+      </c>
+      <c r="S10">
         <v>508</v>
       </c>
-      <c r="H10" s="1">
+      <c r="T10">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>256</v>
+      </c>
+      <c r="V10">
+        <v>507</v>
+      </c>
+      <c r="W10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="C11" s="1">
+        <v>808.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>587</v>
+      </c>
+      <c r="E11" s="1">
+        <v>278</v>
+      </c>
+      <c r="F11">
         <v>809</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
+        <v>587</v>
+      </c>
+      <c r="H11">
+        <v>278</v>
+      </c>
+      <c r="I11">
+        <v>808</v>
+      </c>
+      <c r="J11">
+        <v>587</v>
+      </c>
+      <c r="K11">
+        <v>278</v>
+      </c>
+      <c r="L11">
+        <v>807</v>
+      </c>
+      <c r="M11">
+        <v>587</v>
+      </c>
+      <c r="N11">
+        <v>278</v>
+      </c>
+      <c r="O11">
+        <v>807</v>
+      </c>
+      <c r="P11">
+        <v>586</v>
+      </c>
+      <c r="Q11">
+        <v>277</v>
+      </c>
+      <c r="R11">
+        <v>809</v>
+      </c>
+      <c r="S11">
         <v>588</v>
       </c>
-      <c r="H11" s="1">
+      <c r="T11">
         <v>278</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>809</v>
+      </c>
+      <c r="V11">
+        <v>586</v>
+      </c>
+      <c r="W11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="C12" s="1">
+        <v>798</v>
+      </c>
+      <c r="D12" s="1">
+        <v>609</v>
+      </c>
+      <c r="E12" s="1">
+        <v>261</v>
+      </c>
+      <c r="F12">
+        <v>797</v>
+      </c>
+      <c r="G12">
+        <v>607</v>
+      </c>
+      <c r="H12">
+        <v>261</v>
+      </c>
+      <c r="I12">
+        <v>796</v>
+      </c>
+      <c r="J12">
+        <v>607</v>
+      </c>
+      <c r="K12">
+        <v>261</v>
+      </c>
+      <c r="L12">
+        <v>799</v>
+      </c>
+      <c r="M12">
+        <v>609</v>
+      </c>
+      <c r="N12">
+        <v>262</v>
+      </c>
+      <c r="O12">
+        <v>798</v>
+      </c>
+      <c r="P12">
+        <v>609</v>
+      </c>
+      <c r="Q12">
+        <v>261</v>
+      </c>
+      <c r="R12">
         <v>800</v>
       </c>
-      <c r="G12" s="1">
+      <c r="S12">
         <v>610</v>
       </c>
-      <c r="H12" s="1">
+      <c r="T12">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>798</v>
+      </c>
+      <c r="V12">
+        <v>609</v>
+      </c>
+      <c r="W12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="C13" s="1">
+        <v>240.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>522</v>
+      </c>
+      <c r="E13" s="1">
+        <v>283</v>
+      </c>
+      <c r="F13">
+        <v>241</v>
+      </c>
+      <c r="G13">
+        <v>522</v>
+      </c>
+      <c r="H13">
+        <v>283</v>
+      </c>
+      <c r="I13">
         <v>240</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13">
+        <v>522</v>
+      </c>
+      <c r="K13">
+        <v>283</v>
+      </c>
+      <c r="L13">
+        <v>242</v>
+      </c>
+      <c r="M13">
         <v>523</v>
       </c>
-      <c r="H13" s="1">
+      <c r="N13">
         <v>282</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>241</v>
+      </c>
+      <c r="P13">
+        <v>522</v>
+      </c>
+      <c r="Q13">
+        <v>283</v>
+      </c>
+      <c r="R13">
+        <v>240</v>
+      </c>
+      <c r="S13">
+        <v>523</v>
+      </c>
+      <c r="T13">
+        <v>282</v>
+      </c>
+      <c r="U13">
+        <v>240</v>
+      </c>
+      <c r="V13">
+        <v>522</v>
+      </c>
+      <c r="W13">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
+      <c r="C14" s="1">
+        <v>246.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>547.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>264</v>
+      </c>
+      <c r="F14">
+        <v>245</v>
+      </c>
+      <c r="G14">
+        <v>547</v>
+      </c>
+      <c r="H14">
+        <v>265</v>
+      </c>
+      <c r="I14">
+        <v>248</v>
+      </c>
+      <c r="J14">
+        <v>547</v>
+      </c>
+      <c r="K14">
+        <v>264</v>
+      </c>
+      <c r="L14">
         <v>246</v>
       </c>
-      <c r="G14" s="1">
+      <c r="M14">
         <v>548</v>
       </c>
-      <c r="H14" s="1">
+      <c r="N14">
+        <v>265</v>
+      </c>
+      <c r="O14">
+        <v>248</v>
+      </c>
+      <c r="P14">
+        <v>547</v>
+      </c>
+      <c r="Q14">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>246</v>
+      </c>
+      <c r="S14">
+        <v>548</v>
+      </c>
+      <c r="T14">
+        <v>264</v>
+      </c>
+      <c r="U14">
+        <v>247</v>
+      </c>
+      <c r="V14">
+        <v>548</v>
+      </c>
+      <c r="W14">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>797.5</v>
+      </c>
+      <c r="D15">
+        <v>438</v>
+      </c>
+      <c r="E15">
+        <v>240.5</v>
+      </c>
+      <c r="F15">
+        <v>798</v>
+      </c>
+      <c r="G15">
+        <v>438</v>
+      </c>
+      <c r="H15">
+        <v>240</v>
+      </c>
+      <c r="I15">
+        <v>799</v>
+      </c>
+      <c r="J15">
+        <v>438</v>
+      </c>
+      <c r="K15">
+        <v>241</v>
+      </c>
+      <c r="L15">
+        <v>797</v>
+      </c>
+      <c r="M15">
+        <v>437</v>
+      </c>
+      <c r="N15">
+        <v>241</v>
+      </c>
+      <c r="O15">
+        <v>796</v>
+      </c>
+      <c r="P15">
+        <v>438</v>
+      </c>
+      <c r="Q15">
+        <v>241</v>
+      </c>
+      <c r="R15">
+        <v>795</v>
+      </c>
+      <c r="S15">
+        <v>438</v>
+      </c>
+      <c r="T15">
+        <v>240</v>
+      </c>
+      <c r="U15">
+        <v>799</v>
+      </c>
+      <c r="V15">
+        <v>439</v>
+      </c>
+      <c r="W15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>785</v>
+      </c>
+      <c r="D16">
+        <v>458</v>
+      </c>
+      <c r="E16">
+        <v>226</v>
+      </c>
+      <c r="F16">
+        <v>785</v>
+      </c>
+      <c r="G16">
+        <v>458</v>
+      </c>
+      <c r="H16">
+        <v>225</v>
+      </c>
+      <c r="I16">
+        <v>783</v>
+      </c>
+      <c r="J16">
+        <v>456</v>
+      </c>
+      <c r="K16">
+        <v>226</v>
+      </c>
+      <c r="L16">
+        <v>785</v>
+      </c>
+      <c r="M16">
+        <v>457</v>
+      </c>
+      <c r="N16">
+        <v>226</v>
+      </c>
+      <c r="O16">
+        <v>785</v>
+      </c>
+      <c r="P16">
+        <v>458</v>
+      </c>
+      <c r="Q16">
+        <v>226</v>
+      </c>
+      <c r="R16">
+        <v>786</v>
+      </c>
+      <c r="S16">
+        <v>459</v>
+      </c>
+      <c r="T16">
+        <v>225</v>
+      </c>
+      <c r="U16">
+        <v>786</v>
+      </c>
+      <c r="V16">
+        <v>458</v>
+      </c>
+      <c r="W16">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>249.5</v>
+      </c>
+      <c r="D17">
+        <v>364</v>
+      </c>
+      <c r="E17">
+        <v>269.5</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>364</v>
+      </c>
+      <c r="H17">
+        <v>269</v>
+      </c>
+      <c r="I17">
+        <v>248</v>
+      </c>
+      <c r="J17">
+        <v>363</v>
+      </c>
+      <c r="K17">
+        <v>271</v>
+      </c>
+      <c r="L17">
+        <v>251</v>
+      </c>
+      <c r="M17">
+        <v>364</v>
+      </c>
+      <c r="N17">
+        <v>269</v>
+      </c>
+      <c r="O17">
+        <v>251</v>
+      </c>
+      <c r="P17">
+        <v>364</v>
+      </c>
+      <c r="Q17">
+        <v>270</v>
+      </c>
+      <c r="R17">
+        <v>248</v>
+      </c>
+      <c r="S17">
+        <v>364</v>
+      </c>
+      <c r="T17">
+        <v>269</v>
+      </c>
+      <c r="U17">
+        <v>249</v>
+      </c>
+      <c r="V17">
+        <v>364</v>
+      </c>
+      <c r="W17">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18">
+        <v>387</v>
+      </c>
+      <c r="E18">
+        <v>254.5</v>
+      </c>
+      <c r="F18">
+        <v>256</v>
+      </c>
+      <c r="G18">
+        <v>388</v>
+      </c>
+      <c r="H18">
+        <v>255</v>
+      </c>
+      <c r="I18">
+        <v>256</v>
+      </c>
+      <c r="J18">
+        <v>385</v>
+      </c>
+      <c r="K18">
+        <v>254</v>
+      </c>
+      <c r="L18">
+        <v>257</v>
+      </c>
+      <c r="M18">
+        <v>387</v>
+      </c>
+      <c r="N18">
+        <v>254</v>
+      </c>
+      <c r="O18">
+        <v>256</v>
+      </c>
+      <c r="P18">
+        <v>387</v>
+      </c>
+      <c r="Q18">
+        <v>255</v>
+      </c>
+      <c r="R18">
+        <v>255</v>
+      </c>
+      <c r="S18">
+        <v>388</v>
+      </c>
+      <c r="T18">
+        <v>254</v>
+      </c>
+      <c r="U18">
+        <v>258</v>
+      </c>
+      <c r="V18">
+        <v>385</v>
+      </c>
+      <c r="W18">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>817</v>
+      </c>
+      <c r="D19">
+        <v>399.5</v>
+      </c>
+      <c r="E19">
+        <v>217</v>
+      </c>
+      <c r="F19">
+        <v>817</v>
+      </c>
+      <c r="G19">
+        <v>399</v>
+      </c>
+      <c r="H19">
+        <v>217</v>
+      </c>
+      <c r="I19">
+        <v>818</v>
+      </c>
+      <c r="J19">
+        <v>400</v>
+      </c>
+      <c r="K19">
+        <v>217</v>
+      </c>
+      <c r="L19">
+        <v>814</v>
+      </c>
+      <c r="M19">
+        <v>400</v>
+      </c>
+      <c r="N19">
+        <v>216</v>
+      </c>
+      <c r="O19">
+        <v>815</v>
+      </c>
+      <c r="P19">
+        <v>400</v>
+      </c>
+      <c r="Q19">
+        <v>217</v>
+      </c>
+      <c r="R19">
+        <v>817</v>
+      </c>
+      <c r="S19">
+        <v>399</v>
+      </c>
+      <c r="T19">
+        <v>216</v>
+      </c>
+      <c r="U19">
+        <v>817</v>
+      </c>
+      <c r="V19">
+        <v>399</v>
+      </c>
+      <c r="W19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>807</v>
+      </c>
+      <c r="D20">
+        <v>426</v>
+      </c>
+      <c r="E20">
+        <v>206</v>
+      </c>
+      <c r="F20">
+        <v>807</v>
+      </c>
+      <c r="G20">
+        <v>426</v>
+      </c>
+      <c r="H20">
+        <v>207</v>
+      </c>
+      <c r="I20">
+        <v>806</v>
+      </c>
+      <c r="J20">
+        <v>426</v>
+      </c>
+      <c r="K20">
+        <v>205</v>
+      </c>
+      <c r="L20">
+        <v>807</v>
+      </c>
+      <c r="M20">
+        <v>424</v>
+      </c>
+      <c r="N20">
+        <v>207</v>
+      </c>
+      <c r="O20">
+        <v>807</v>
+      </c>
+      <c r="P20">
+        <v>426</v>
+      </c>
+      <c r="Q20">
+        <v>206</v>
+      </c>
+      <c r="R20">
+        <v>808</v>
+      </c>
+      <c r="S20">
+        <v>427</v>
+      </c>
+      <c r="T20">
+        <v>206</v>
+      </c>
+      <c r="U20">
+        <v>808</v>
+      </c>
+      <c r="V20">
+        <v>425</v>
+      </c>
+      <c r="W20">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>247</v>
+      </c>
+      <c r="D21">
+        <v>412</v>
+      </c>
+      <c r="E21">
+        <v>242</v>
+      </c>
+      <c r="F21">
+        <v>247</v>
+      </c>
+      <c r="G21">
+        <v>412</v>
+      </c>
+      <c r="H21">
+        <v>243</v>
+      </c>
+      <c r="I21">
+        <v>247</v>
+      </c>
+      <c r="J21">
+        <v>411</v>
+      </c>
+      <c r="K21">
+        <v>242</v>
+      </c>
+      <c r="L21">
+        <v>248</v>
+      </c>
+      <c r="M21">
+        <v>412</v>
+      </c>
+      <c r="N21">
+        <v>242</v>
+      </c>
+      <c r="O21">
+        <v>248</v>
+      </c>
+      <c r="P21">
+        <v>411</v>
+      </c>
+      <c r="Q21">
+        <v>242</v>
+      </c>
+      <c r="R21">
+        <v>246</v>
+      </c>
+      <c r="S21">
+        <v>413</v>
+      </c>
+      <c r="T21">
+        <v>241</v>
+      </c>
+      <c r="U21">
+        <v>245</v>
+      </c>
+      <c r="V21">
+        <v>412</v>
+      </c>
+      <c r="W21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>259</v>
+      </c>
+      <c r="D22">
+        <v>434.5</v>
+      </c>
+      <c r="E22">
+        <v>235</v>
+      </c>
+      <c r="F22">
+        <v>259</v>
+      </c>
+      <c r="G22">
+        <v>435</v>
+      </c>
+      <c r="H22">
+        <v>235</v>
+      </c>
+      <c r="I22">
+        <v>261</v>
+      </c>
+      <c r="J22">
+        <v>434</v>
+      </c>
+      <c r="K22">
+        <v>235</v>
+      </c>
+      <c r="L22">
+        <v>259</v>
+      </c>
+      <c r="M22">
+        <v>434</v>
+      </c>
+      <c r="N22">
+        <v>235</v>
+      </c>
+      <c r="O22">
+        <v>259</v>
+      </c>
+      <c r="P22">
+        <v>435</v>
+      </c>
+      <c r="Q22">
+        <v>235</v>
+      </c>
+      <c r="R22">
+        <v>261</v>
+      </c>
+      <c r="S22">
+        <v>433</v>
+      </c>
+      <c r="T22">
+        <v>235</v>
+      </c>
+      <c r="U22">
+        <v>258</v>
+      </c>
+      <c r="V22">
+        <v>435</v>
+      </c>
+      <c r="W22">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>777.5</v>
+      </c>
+      <c r="D23">
+        <v>520</v>
+      </c>
+      <c r="E23">
+        <v>213.5</v>
+      </c>
+      <c r="F23">
+        <v>780</v>
+      </c>
+      <c r="G23">
+        <v>520</v>
+      </c>
+      <c r="H23">
+        <v>214</v>
+      </c>
+      <c r="I23">
+        <v>778</v>
+      </c>
+      <c r="J23">
+        <v>519</v>
+      </c>
+      <c r="K23">
+        <v>214</v>
+      </c>
+      <c r="L23">
+        <v>776</v>
+      </c>
+      <c r="M23">
+        <v>521</v>
+      </c>
+      <c r="N23">
+        <v>213</v>
+      </c>
+      <c r="O23">
+        <v>776</v>
+      </c>
+      <c r="P23">
+        <v>520</v>
+      </c>
+      <c r="Q23">
+        <v>213</v>
+      </c>
+      <c r="R23">
+        <v>778</v>
+      </c>
+      <c r="S23">
+        <v>519</v>
+      </c>
+      <c r="T23">
+        <v>215</v>
+      </c>
+      <c r="U23">
+        <v>777</v>
+      </c>
+      <c r="V23">
+        <v>522</v>
+      </c>
+      <c r="W23">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>768</v>
+      </c>
+      <c r="D24">
+        <v>547</v>
+      </c>
+      <c r="E24">
+        <v>206.5</v>
+      </c>
+      <c r="F24">
+        <v>768</v>
+      </c>
+      <c r="G24">
+        <v>547</v>
+      </c>
+      <c r="H24">
+        <v>206</v>
+      </c>
+      <c r="I24">
+        <v>766</v>
+      </c>
+      <c r="J24">
+        <v>546</v>
+      </c>
+      <c r="K24">
+        <v>207</v>
+      </c>
+      <c r="L24">
+        <v>769</v>
+      </c>
+      <c r="M24">
+        <v>548</v>
+      </c>
+      <c r="N24">
+        <v>207</v>
+      </c>
+      <c r="O24">
+        <v>768</v>
+      </c>
+      <c r="P24">
+        <v>547</v>
+      </c>
+      <c r="Q24">
+        <v>206</v>
+      </c>
+      <c r="R24">
+        <v>771</v>
+      </c>
+      <c r="S24">
+        <v>547</v>
+      </c>
+      <c r="T24">
+        <v>206</v>
+      </c>
+      <c r="U24">
+        <v>768</v>
+      </c>
+      <c r="V24">
+        <v>547</v>
+      </c>
+      <c r="W24">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>277.5</v>
+      </c>
+      <c r="D25">
+        <v>533</v>
+      </c>
+      <c r="E25">
+        <v>178.5</v>
+      </c>
+      <c r="F25">
+        <v>278</v>
+      </c>
+      <c r="G25">
+        <v>532</v>
+      </c>
+      <c r="H25">
+        <v>179</v>
+      </c>
+      <c r="I25">
+        <v>275</v>
+      </c>
+      <c r="J25">
+        <v>532</v>
+      </c>
+      <c r="K25">
+        <v>179</v>
+      </c>
+      <c r="L25">
+        <v>279</v>
+      </c>
+      <c r="M25">
+        <v>533</v>
+      </c>
+      <c r="N25">
+        <v>178</v>
+      </c>
+      <c r="O25">
+        <v>278</v>
+      </c>
+      <c r="P25">
+        <v>533</v>
+      </c>
+      <c r="Q25">
+        <v>178</v>
+      </c>
+      <c r="R25">
+        <v>277</v>
+      </c>
+      <c r="S25">
+        <v>534</v>
+      </c>
+      <c r="T25">
+        <v>176</v>
+      </c>
+      <c r="U25">
+        <v>277</v>
+      </c>
+      <c r="V25">
+        <v>533</v>
+      </c>
+      <c r="W25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>289</v>
+      </c>
+      <c r="D26">
+        <v>559.5</v>
+      </c>
+      <c r="E26">
+        <v>169</v>
+      </c>
+      <c r="F26">
+        <v>289</v>
+      </c>
+      <c r="G26">
+        <v>559</v>
+      </c>
+      <c r="H26">
+        <v>169</v>
+      </c>
+      <c r="I26">
+        <v>289</v>
+      </c>
+      <c r="J26">
+        <v>558</v>
+      </c>
+      <c r="K26">
+        <v>169</v>
+      </c>
+      <c r="L26">
+        <v>288</v>
+      </c>
+      <c r="M26">
+        <v>560</v>
+      </c>
+      <c r="N26">
+        <v>169</v>
+      </c>
+      <c r="O26">
+        <v>289</v>
+      </c>
+      <c r="P26">
+        <v>559</v>
+      </c>
+      <c r="Q26">
+        <v>169</v>
+      </c>
+      <c r="R26">
+        <v>287</v>
+      </c>
+      <c r="S26">
+        <v>561</v>
+      </c>
+      <c r="T26">
+        <v>169</v>
+      </c>
+      <c r="U26">
+        <v>289</v>
+      </c>
+      <c r="V26">
+        <v>560</v>
+      </c>
+      <c r="W26">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>778.5</v>
+      </c>
+      <c r="D27">
+        <v>521</v>
+      </c>
+      <c r="E27">
+        <v>232</v>
+      </c>
+      <c r="F27">
+        <v>778</v>
+      </c>
+      <c r="G27">
+        <v>522</v>
+      </c>
+      <c r="H27">
+        <v>232</v>
+      </c>
+      <c r="I27">
+        <v>780</v>
+      </c>
+      <c r="J27">
+        <v>521</v>
+      </c>
+      <c r="K27">
+        <v>232</v>
+      </c>
+      <c r="L27">
+        <v>775</v>
+      </c>
+      <c r="M27">
+        <v>521</v>
+      </c>
+      <c r="N27">
+        <v>233</v>
+      </c>
+      <c r="O27">
+        <v>776</v>
+      </c>
+      <c r="P27">
+        <v>521</v>
+      </c>
+      <c r="Q27">
+        <v>232</v>
+      </c>
+      <c r="R27">
+        <v>779</v>
+      </c>
+      <c r="S27">
+        <v>523</v>
+      </c>
+      <c r="T27">
+        <v>232</v>
+      </c>
+      <c r="U27">
+        <v>779</v>
+      </c>
+      <c r="V27">
+        <v>521</v>
+      </c>
+      <c r="W27">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>764</v>
+      </c>
+      <c r="D28">
+        <v>544.5</v>
+      </c>
+      <c r="E28">
+        <v>223</v>
+      </c>
+      <c r="F28">
+        <v>764</v>
+      </c>
+      <c r="G28">
+        <v>544</v>
+      </c>
+      <c r="H28">
+        <v>223</v>
+      </c>
+      <c r="I28">
+        <v>763</v>
+      </c>
+      <c r="J28">
+        <v>544</v>
+      </c>
+      <c r="K28">
+        <v>223</v>
+      </c>
+      <c r="L28">
+        <v>764</v>
+      </c>
+      <c r="M28">
+        <v>545</v>
+      </c>
+      <c r="N28">
+        <v>223</v>
+      </c>
+      <c r="O28">
+        <v>764</v>
+      </c>
+      <c r="P28">
+        <v>546</v>
+      </c>
+      <c r="Q28">
+        <v>223</v>
+      </c>
+      <c r="R28">
+        <v>765</v>
+      </c>
+      <c r="S28">
+        <v>544</v>
+      </c>
+      <c r="T28">
+        <v>222</v>
+      </c>
+      <c r="U28">
+        <v>765</v>
+      </c>
+      <c r="V28">
+        <v>545</v>
+      </c>
+      <c r="W28">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>270.5</v>
+      </c>
+      <c r="D29">
+        <v>488</v>
+      </c>
+      <c r="E29">
+        <v>228</v>
+      </c>
+      <c r="F29">
+        <v>270</v>
+      </c>
+      <c r="G29">
+        <v>487</v>
+      </c>
+      <c r="H29">
+        <v>228</v>
+      </c>
+      <c r="I29">
+        <v>270</v>
+      </c>
+      <c r="J29">
+        <v>487</v>
+      </c>
+      <c r="K29">
+        <v>228</v>
+      </c>
+      <c r="L29">
+        <v>273</v>
+      </c>
+      <c r="M29">
+        <v>488</v>
+      </c>
+      <c r="N29">
+        <v>227</v>
+      </c>
+      <c r="O29">
+        <v>272</v>
+      </c>
+      <c r="P29">
+        <v>488</v>
+      </c>
+      <c r="Q29">
+        <v>228</v>
+      </c>
+      <c r="R29">
+        <v>271</v>
+      </c>
+      <c r="S29">
+        <v>488</v>
+      </c>
+      <c r="T29">
+        <v>227</v>
+      </c>
+      <c r="U29">
+        <v>270</v>
+      </c>
+      <c r="V29">
+        <v>489</v>
+      </c>
+      <c r="W29">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>279.5</v>
+      </c>
+      <c r="D30">
+        <v>514</v>
+      </c>
+      <c r="E30">
+        <v>219.5</v>
+      </c>
+      <c r="F30">
+        <v>280</v>
+      </c>
+      <c r="G30">
+        <v>514</v>
+      </c>
+      <c r="H30">
+        <v>220</v>
+      </c>
+      <c r="I30">
+        <v>279</v>
+      </c>
+      <c r="J30">
+        <v>513</v>
+      </c>
+      <c r="K30">
+        <v>220</v>
+      </c>
+      <c r="L30">
+        <v>279</v>
+      </c>
+      <c r="M30">
+        <v>514</v>
+      </c>
+      <c r="N30">
+        <v>219</v>
+      </c>
+      <c r="O30">
+        <v>280</v>
+      </c>
+      <c r="P30">
+        <v>514</v>
+      </c>
+      <c r="Q30">
+        <v>220</v>
+      </c>
+      <c r="R30">
+        <v>279</v>
+      </c>
+      <c r="S30">
+        <v>512</v>
+      </c>
+      <c r="T30">
+        <v>219</v>
+      </c>
+      <c r="U30">
+        <v>280</v>
+      </c>
+      <c r="V30">
+        <v>514</v>
+      </c>
+      <c r="W30">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>806</v>
+      </c>
+      <c r="D31">
+        <v>513</v>
+      </c>
+      <c r="E31">
+        <v>247</v>
+      </c>
+      <c r="F31">
+        <v>807</v>
+      </c>
+      <c r="G31">
+        <v>513</v>
+      </c>
+      <c r="H31">
+        <v>247</v>
+      </c>
+      <c r="I31">
+        <v>807</v>
+      </c>
+      <c r="J31">
+        <v>513</v>
+      </c>
+      <c r="K31">
+        <v>248</v>
+      </c>
+      <c r="L31">
+        <v>802</v>
+      </c>
+      <c r="M31">
+        <v>513</v>
+      </c>
+      <c r="N31">
+        <v>247</v>
+      </c>
+      <c r="O31">
+        <v>805</v>
+      </c>
+      <c r="P31">
+        <v>512</v>
+      </c>
+      <c r="Q31">
+        <v>247</v>
+      </c>
+      <c r="R31">
+        <v>805</v>
+      </c>
+      <c r="S31">
+        <v>513</v>
+      </c>
+      <c r="T31">
+        <v>247</v>
+      </c>
+      <c r="U31">
+        <v>808</v>
+      </c>
+      <c r="V31">
+        <v>512</v>
+      </c>
+      <c r="W31">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>793.5</v>
+      </c>
+      <c r="D32">
+        <v>534.5</v>
+      </c>
+      <c r="E32">
+        <v>232</v>
+      </c>
+      <c r="F32">
+        <v>794</v>
+      </c>
+      <c r="G32">
+        <v>535</v>
+      </c>
+      <c r="H32">
+        <v>232</v>
+      </c>
+      <c r="I32">
+        <v>792</v>
+      </c>
+      <c r="J32">
+        <v>534</v>
+      </c>
+      <c r="K32">
+        <v>233</v>
+      </c>
+      <c r="L32">
+        <v>793</v>
+      </c>
+      <c r="M32">
+        <v>534</v>
+      </c>
+      <c r="N32">
+        <v>232</v>
+      </c>
+      <c r="O32">
+        <v>793</v>
+      </c>
+      <c r="P32">
+        <v>534</v>
+      </c>
+      <c r="Q32">
+        <v>232</v>
+      </c>
+      <c r="R32">
+        <v>795</v>
+      </c>
+      <c r="S32">
+        <v>535</v>
+      </c>
+      <c r="T32">
+        <v>233</v>
+      </c>
+      <c r="U32">
+        <v>795</v>
+      </c>
+      <c r="V32">
+        <v>535</v>
+      </c>
+      <c r="W32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>245</v>
+      </c>
+      <c r="D33">
+        <v>530</v>
+      </c>
+      <c r="E33">
+        <v>209.5</v>
+      </c>
+      <c r="F33">
+        <v>245</v>
+      </c>
+      <c r="G33">
+        <v>531</v>
+      </c>
+      <c r="H33">
+        <v>209</v>
+      </c>
+      <c r="I33">
+        <v>244</v>
+      </c>
+      <c r="J33">
+        <v>530</v>
+      </c>
+      <c r="K33">
+        <v>210</v>
+      </c>
+      <c r="L33">
+        <v>249</v>
+      </c>
+      <c r="M33">
+        <v>530</v>
+      </c>
+      <c r="N33">
+        <v>210</v>
+      </c>
+      <c r="O33">
+        <v>248</v>
+      </c>
+      <c r="P33">
+        <v>530</v>
+      </c>
+      <c r="Q33">
+        <v>210</v>
+      </c>
+      <c r="R33">
+        <v>245</v>
+      </c>
+      <c r="S33">
+        <v>529</v>
+      </c>
+      <c r="T33">
+        <v>209</v>
+      </c>
+      <c r="U33">
+        <v>243</v>
+      </c>
+      <c r="V33">
+        <v>531</v>
+      </c>
+      <c r="W33">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>261.5</v>
+      </c>
+      <c r="D34">
+        <v>550</v>
+      </c>
+      <c r="E34">
+        <v>198</v>
+      </c>
+      <c r="F34">
+        <v>261</v>
+      </c>
+      <c r="G34">
+        <v>552</v>
+      </c>
+      <c r="H34">
+        <v>198</v>
+      </c>
+      <c r="I34">
+        <v>263</v>
+      </c>
+      <c r="J34">
+        <v>550</v>
+      </c>
+      <c r="K34">
+        <v>199</v>
+      </c>
+      <c r="L34">
+        <v>262</v>
+      </c>
+      <c r="M34">
+        <v>550</v>
+      </c>
+      <c r="N34">
+        <v>198</v>
+      </c>
+      <c r="O34">
+        <v>262</v>
+      </c>
+      <c r="P34">
+        <v>550</v>
+      </c>
+      <c r="Q34">
+        <v>198</v>
+      </c>
+      <c r="R34">
+        <v>261</v>
+      </c>
+      <c r="S34">
+        <v>550</v>
+      </c>
+      <c r="T34">
+        <v>197</v>
+      </c>
+      <c r="U34">
+        <v>259</v>
+      </c>
+      <c r="V34">
+        <v>552</v>
+      </c>
+      <c r="W34">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>768</v>
+      </c>
+      <c r="D35">
+        <v>525</v>
+      </c>
+      <c r="E35">
+        <v>247</v>
+      </c>
+      <c r="F35">
+        <v>768</v>
+      </c>
+      <c r="G35">
+        <v>525</v>
+      </c>
+      <c r="H35">
+        <v>247</v>
+      </c>
+      <c r="I35">
+        <v>768</v>
+      </c>
+      <c r="J35">
+        <v>525</v>
+      </c>
+      <c r="K35">
+        <v>247</v>
+      </c>
+      <c r="L35">
+        <v>765</v>
+      </c>
+      <c r="M35">
+        <v>524</v>
+      </c>
+      <c r="N35">
+        <v>247</v>
+      </c>
+      <c r="O35">
+        <v>767</v>
+      </c>
+      <c r="P35">
+        <v>525</v>
+      </c>
+      <c r="Q35">
+        <v>247</v>
+      </c>
+      <c r="R35">
+        <v>769</v>
+      </c>
+      <c r="S35">
+        <v>526</v>
+      </c>
+      <c r="T35">
+        <v>246</v>
+      </c>
+      <c r="U35">
+        <v>768</v>
+      </c>
+      <c r="V35">
+        <v>526</v>
+      </c>
+      <c r="W35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>758</v>
+      </c>
+      <c r="D36">
+        <v>543</v>
+      </c>
+      <c r="E36">
+        <v>239</v>
+      </c>
+      <c r="F36">
+        <v>758</v>
+      </c>
+      <c r="G36">
+        <v>543</v>
+      </c>
+      <c r="H36">
+        <v>239</v>
+      </c>
+      <c r="I36">
+        <v>757</v>
+      </c>
+      <c r="J36">
+        <v>542</v>
+      </c>
+      <c r="K36">
+        <v>239</v>
+      </c>
+      <c r="L36">
+        <v>758</v>
+      </c>
+      <c r="M36">
+        <v>543</v>
+      </c>
+      <c r="N36">
+        <v>239</v>
+      </c>
+      <c r="O36">
+        <v>757</v>
+      </c>
+      <c r="P36">
+        <v>543</v>
+      </c>
+      <c r="Q36">
+        <v>239</v>
+      </c>
+      <c r="R36">
+        <v>761</v>
+      </c>
+      <c r="S36">
+        <v>545</v>
+      </c>
+      <c r="T36">
+        <v>238</v>
+      </c>
+      <c r="U36">
+        <v>758</v>
+      </c>
+      <c r="V36">
+        <v>542</v>
+      </c>
+      <c r="W36">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>220</v>
+      </c>
+      <c r="D37">
+        <v>527.5</v>
+      </c>
+      <c r="E37">
+        <v>271.5</v>
+      </c>
+      <c r="F37">
+        <v>220</v>
+      </c>
+      <c r="G37">
+        <v>527</v>
+      </c>
+      <c r="H37">
+        <v>272</v>
+      </c>
+      <c r="I37">
+        <v>220</v>
+      </c>
+      <c r="J37">
+        <v>529</v>
+      </c>
+      <c r="K37">
+        <v>271</v>
+      </c>
+      <c r="L37">
+        <v>221</v>
+      </c>
+      <c r="M37">
+        <v>527</v>
+      </c>
+      <c r="N37">
+        <v>272</v>
+      </c>
+      <c r="O37">
+        <v>221</v>
+      </c>
+      <c r="P37">
+        <v>527</v>
+      </c>
+      <c r="Q37">
+        <v>272</v>
+      </c>
+      <c r="R37">
+        <v>220</v>
+      </c>
+      <c r="S37">
+        <v>528</v>
+      </c>
+      <c r="T37">
+        <v>271</v>
+      </c>
+      <c r="U37">
+        <v>220</v>
+      </c>
+      <c r="V37">
+        <v>529</v>
+      </c>
+      <c r="W37">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>227</v>
+      </c>
+      <c r="D38">
+        <v>545.5</v>
+      </c>
+      <c r="E38">
+        <v>263</v>
+      </c>
+      <c r="F38">
+        <v>227</v>
+      </c>
+      <c r="G38">
+        <v>545</v>
+      </c>
+      <c r="H38">
+        <v>263</v>
+      </c>
+      <c r="I38">
+        <v>228</v>
+      </c>
+      <c r="J38">
+        <v>545</v>
+      </c>
+      <c r="K38">
+        <v>263</v>
+      </c>
+      <c r="L38">
+        <v>227</v>
+      </c>
+      <c r="M38">
+        <v>546</v>
+      </c>
+      <c r="N38">
+        <v>263</v>
+      </c>
+      <c r="O38">
+        <v>228</v>
+      </c>
+      <c r="P38">
+        <v>545</v>
+      </c>
+      <c r="Q38">
+        <v>263</v>
+      </c>
+      <c r="R38">
+        <v>225</v>
+      </c>
+      <c r="S38">
+        <v>546</v>
+      </c>
+      <c r="T38">
+        <v>263</v>
+      </c>
+      <c r="U38">
+        <v>226</v>
+      </c>
+      <c r="V38">
+        <v>546</v>
+      </c>
+      <c r="W38">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>811</v>
+      </c>
+      <c r="D39">
+        <v>444</v>
+      </c>
+      <c r="E39">
+        <v>262</v>
+      </c>
+      <c r="F39">
+        <v>810</v>
+      </c>
+      <c r="G39">
+        <v>445</v>
+      </c>
+      <c r="H39">
+        <v>262</v>
+      </c>
+      <c r="I39">
+        <v>812</v>
+      </c>
+      <c r="J39">
+        <v>444</v>
+      </c>
+      <c r="K39">
+        <v>262</v>
+      </c>
+      <c r="L39">
+        <v>807</v>
+      </c>
+      <c r="M39">
+        <v>443</v>
+      </c>
+      <c r="N39">
+        <v>262</v>
+      </c>
+      <c r="O39">
+        <v>809</v>
+      </c>
+      <c r="P39">
+        <v>444</v>
+      </c>
+      <c r="Q39">
+        <v>262</v>
+      </c>
+      <c r="R39">
+        <v>812</v>
+      </c>
+      <c r="S39">
+        <v>444</v>
+      </c>
+      <c r="T39">
+        <v>262</v>
+      </c>
+      <c r="U39">
+        <v>812</v>
+      </c>
+      <c r="V39">
+        <v>445</v>
+      </c>
+      <c r="W39">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>801</v>
+      </c>
+      <c r="D40">
+        <v>470.5</v>
+      </c>
+      <c r="E40">
+        <v>252</v>
+      </c>
+      <c r="F40">
+        <v>800</v>
+      </c>
+      <c r="G40">
+        <v>470</v>
+      </c>
+      <c r="H40">
+        <v>252</v>
+      </c>
+      <c r="I40">
+        <v>801</v>
+      </c>
+      <c r="J40">
+        <v>471</v>
+      </c>
+      <c r="K40">
+        <v>254</v>
+      </c>
+      <c r="L40">
+        <v>801</v>
+      </c>
+      <c r="M40">
+        <v>470</v>
+      </c>
+      <c r="N40">
+        <v>252</v>
+      </c>
+      <c r="O40">
+        <v>798</v>
+      </c>
+      <c r="P40">
+        <v>469</v>
+      </c>
+      <c r="Q40">
+        <v>252</v>
+      </c>
+      <c r="R40">
+        <v>802</v>
+      </c>
+      <c r="S40">
+        <v>473</v>
+      </c>
+      <c r="T40">
+        <v>251</v>
+      </c>
+      <c r="U40">
+        <v>801</v>
+      </c>
+      <c r="V40">
+        <v>471</v>
+      </c>
+      <c r="W40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>215.5</v>
+      </c>
+      <c r="D41">
+        <v>463.5</v>
+      </c>
+      <c r="E41">
+        <v>244</v>
+      </c>
+      <c r="F41">
+        <v>215</v>
+      </c>
+      <c r="G41">
+        <v>464</v>
+      </c>
+      <c r="H41">
+        <v>244</v>
+      </c>
+      <c r="I41">
+        <v>216</v>
+      </c>
+      <c r="J41">
+        <v>463</v>
+      </c>
+      <c r="K41">
+        <v>244</v>
+      </c>
+      <c r="L41">
+        <v>218</v>
+      </c>
+      <c r="M41">
+        <v>463</v>
+      </c>
+      <c r="N41">
+        <v>244</v>
+      </c>
+      <c r="O41">
+        <v>217</v>
+      </c>
+      <c r="P41">
+        <v>464</v>
+      </c>
+      <c r="Q41">
+        <v>244</v>
+      </c>
+      <c r="R41">
+        <v>215</v>
+      </c>
+      <c r="S41">
+        <v>464</v>
+      </c>
+      <c r="T41">
+        <v>244</v>
+      </c>
+      <c r="U41">
+        <v>215</v>
+      </c>
+      <c r="V41">
+        <v>463</v>
+      </c>
+      <c r="W41">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>226.5</v>
+      </c>
+      <c r="D42">
+        <v>487.5</v>
+      </c>
+      <c r="E42">
+        <v>232</v>
+      </c>
+      <c r="F42">
+        <v>226</v>
+      </c>
+      <c r="G42">
+        <v>488</v>
+      </c>
+      <c r="H42">
+        <v>232</v>
+      </c>
+      <c r="I42">
+        <v>226</v>
+      </c>
+      <c r="J42">
+        <v>488</v>
+      </c>
+      <c r="K42">
+        <v>232</v>
+      </c>
+      <c r="L42">
+        <v>225</v>
+      </c>
+      <c r="M42">
+        <v>490</v>
+      </c>
+      <c r="N42">
+        <v>232</v>
+      </c>
+      <c r="O42">
+        <v>228</v>
+      </c>
+      <c r="P42">
+        <v>487</v>
+      </c>
+      <c r="Q42">
+        <v>232</v>
+      </c>
+      <c r="R42">
+        <v>228</v>
+      </c>
+      <c r="S42">
+        <v>486</v>
+      </c>
+      <c r="T42">
+        <v>231</v>
+      </c>
+      <c r="U42">
+        <v>227</v>
+      </c>
+      <c r="V42">
+        <v>487</v>
+      </c>
+      <c r="W42">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>784</v>
+      </c>
+      <c r="D43">
+        <v>523</v>
+      </c>
+      <c r="E43">
+        <v>233</v>
+      </c>
+      <c r="F43">
+        <v>784</v>
+      </c>
+      <c r="G43">
+        <v>523</v>
+      </c>
+      <c r="H43">
+        <v>233</v>
+      </c>
+      <c r="I43">
+        <v>786</v>
+      </c>
+      <c r="J43">
+        <v>524</v>
+      </c>
+      <c r="K43">
+        <v>233</v>
+      </c>
+      <c r="L43">
+        <v>782</v>
+      </c>
+      <c r="M43">
+        <v>522</v>
+      </c>
+      <c r="N43">
+        <v>234</v>
+      </c>
+      <c r="O43">
+        <v>783</v>
+      </c>
+      <c r="P43">
+        <v>523</v>
+      </c>
+      <c r="Q43">
+        <v>233</v>
+      </c>
+      <c r="R43">
+        <v>784</v>
+      </c>
+      <c r="S43">
+        <v>523</v>
+      </c>
+      <c r="T43">
+        <v>232</v>
+      </c>
+      <c r="U43">
+        <v>786</v>
+      </c>
+      <c r="V43">
+        <v>523</v>
+      </c>
+      <c r="W43">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>772</v>
+      </c>
+      <c r="D44">
+        <v>546</v>
+      </c>
+      <c r="E44">
+        <v>222</v>
+      </c>
+      <c r="F44">
+        <v>771</v>
+      </c>
+      <c r="G44">
+        <v>545</v>
+      </c>
+      <c r="H44">
+        <v>222</v>
+      </c>
+      <c r="I44">
+        <v>772</v>
+      </c>
+      <c r="J44">
+        <v>545</v>
+      </c>
+      <c r="K44">
+        <v>222</v>
+      </c>
+      <c r="L44">
+        <v>772</v>
+      </c>
+      <c r="M44">
+        <v>546</v>
+      </c>
+      <c r="N44">
+        <v>222</v>
+      </c>
+      <c r="O44">
+        <v>771</v>
+      </c>
+      <c r="P44">
+        <v>546</v>
+      </c>
+      <c r="Q44">
+        <v>222</v>
+      </c>
+      <c r="R44">
+        <v>773</v>
+      </c>
+      <c r="S44">
+        <v>547</v>
+      </c>
+      <c r="T44">
+        <v>221</v>
+      </c>
+      <c r="U44">
+        <v>772</v>
+      </c>
+      <c r="V44">
+        <v>546</v>
+      </c>
+      <c r="W44">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>235</v>
+      </c>
+      <c r="D45">
+        <v>484</v>
+      </c>
+      <c r="E45">
+        <v>259</v>
+      </c>
+      <c r="F45">
+        <v>235</v>
+      </c>
+      <c r="G45">
+        <v>484</v>
+      </c>
+      <c r="H45">
+        <v>259</v>
+      </c>
+      <c r="I45">
+        <v>235</v>
+      </c>
+      <c r="J45">
+        <v>484</v>
+      </c>
+      <c r="K45">
+        <v>259</v>
+      </c>
+      <c r="L45">
+        <v>236</v>
+      </c>
+      <c r="M45">
+        <v>484</v>
+      </c>
+      <c r="N45">
+        <v>259</v>
+      </c>
+      <c r="O45">
+        <v>236</v>
+      </c>
+      <c r="P45">
+        <v>483</v>
+      </c>
+      <c r="Q45">
+        <v>259</v>
+      </c>
+      <c r="R45">
+        <v>233</v>
+      </c>
+      <c r="S45">
+        <v>484</v>
+      </c>
+      <c r="T45">
+        <v>260</v>
+      </c>
+      <c r="U45">
+        <v>234</v>
+      </c>
+      <c r="V45">
+        <v>484</v>
+      </c>
+      <c r="W45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>243</v>
+      </c>
+      <c r="D46">
+        <v>508</v>
+      </c>
+      <c r="E46">
+        <v>246.5</v>
+      </c>
+      <c r="F46">
+        <v>244</v>
+      </c>
+      <c r="G46">
+        <v>507</v>
+      </c>
+      <c r="H46">
+        <v>247</v>
+      </c>
+      <c r="I46">
+        <v>243</v>
+      </c>
+      <c r="J46">
+        <v>508</v>
+      </c>
+      <c r="K46">
+        <v>246</v>
+      </c>
+      <c r="L46">
+        <v>243</v>
+      </c>
+      <c r="M46">
+        <v>508</v>
+      </c>
+      <c r="N46">
+        <v>247</v>
+      </c>
+      <c r="O46">
+        <v>244</v>
+      </c>
+      <c r="P46">
+        <v>508</v>
+      </c>
+      <c r="Q46">
+        <v>247</v>
+      </c>
+      <c r="R46">
+        <v>243</v>
+      </c>
+      <c r="S46">
+        <v>508</v>
+      </c>
+      <c r="T46">
+        <v>246</v>
+      </c>
+      <c r="U46">
+        <v>242</v>
+      </c>
+      <c r="V46">
+        <v>508</v>
+      </c>
+      <c r="W46">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>800</v>
+      </c>
+      <c r="D47">
+        <v>425</v>
+      </c>
+      <c r="E47">
+        <v>274</v>
+      </c>
+      <c r="F47">
+        <v>800</v>
+      </c>
+      <c r="G47">
+        <v>424</v>
+      </c>
+      <c r="H47">
+        <v>274</v>
+      </c>
+      <c r="I47">
+        <v>802</v>
+      </c>
+      <c r="J47">
+        <v>425</v>
+      </c>
+      <c r="K47">
+        <v>274</v>
+      </c>
+      <c r="L47">
+        <v>798</v>
+      </c>
+      <c r="M47">
+        <v>426</v>
+      </c>
+      <c r="N47">
+        <v>274</v>
+      </c>
+      <c r="O47">
+        <v>798</v>
+      </c>
+      <c r="P47">
+        <v>425</v>
+      </c>
+      <c r="Q47">
+        <v>274</v>
+      </c>
+      <c r="R47">
+        <v>800</v>
+      </c>
+      <c r="S47">
+        <v>425</v>
+      </c>
+      <c r="T47">
+        <v>274</v>
+      </c>
+      <c r="U47">
+        <v>800</v>
+      </c>
+      <c r="V47">
+        <v>425</v>
+      </c>
+      <c r="W47">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>790</v>
+      </c>
+      <c r="D48">
+        <v>452</v>
+      </c>
+      <c r="E48">
+        <v>264</v>
+      </c>
+      <c r="F48">
+        <v>790</v>
+      </c>
+      <c r="G48">
+        <v>452</v>
+      </c>
+      <c r="H48">
+        <v>274</v>
+      </c>
+      <c r="I48">
+        <v>790</v>
+      </c>
+      <c r="J48">
+        <v>452</v>
+      </c>
+      <c r="K48">
+        <v>264</v>
+      </c>
+      <c r="L48">
+        <v>790</v>
+      </c>
+      <c r="M48">
+        <v>453</v>
+      </c>
+      <c r="N48">
+        <v>264</v>
+      </c>
+      <c r="O48">
+        <v>788</v>
+      </c>
+      <c r="P48">
+        <v>452</v>
+      </c>
+      <c r="Q48">
+        <v>264</v>
+      </c>
+      <c r="R48">
+        <v>791</v>
+      </c>
+      <c r="S48">
+        <v>453</v>
+      </c>
+      <c r="T48">
+        <v>264</v>
+      </c>
+      <c r="U48">
+        <v>792</v>
+      </c>
+      <c r="V48">
+        <v>452</v>
+      </c>
+      <c r="W48">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>202.5</v>
+      </c>
+      <c r="D49">
+        <v>419</v>
+      </c>
+      <c r="E49">
+        <v>243</v>
+      </c>
+      <c r="F49">
+        <v>203</v>
+      </c>
+      <c r="G49">
+        <v>418</v>
+      </c>
+      <c r="H49">
+        <v>243</v>
+      </c>
+      <c r="I49">
+        <v>202</v>
+      </c>
+      <c r="J49">
+        <v>419</v>
+      </c>
+      <c r="K49">
+        <v>242</v>
+      </c>
+      <c r="L49">
+        <v>205</v>
+      </c>
+      <c r="M49">
+        <v>419</v>
+      </c>
+      <c r="N49">
+        <v>243</v>
+      </c>
+      <c r="O49">
+        <v>204</v>
+      </c>
+      <c r="P49">
+        <v>419</v>
+      </c>
+      <c r="Q49">
+        <v>243</v>
+      </c>
+      <c r="R49">
+        <v>202</v>
+      </c>
+      <c r="S49">
+        <v>419</v>
+      </c>
+      <c r="T49">
+        <v>243</v>
+      </c>
+      <c r="U49">
+        <v>202</v>
+      </c>
+      <c r="V49">
+        <v>418</v>
+      </c>
+      <c r="W49">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>216</v>
+      </c>
+      <c r="D50">
+        <v>446</v>
+      </c>
+      <c r="E50">
+        <v>233</v>
+      </c>
+      <c r="F50">
+        <v>214</v>
+      </c>
+      <c r="G50">
+        <v>448</v>
+      </c>
+      <c r="H50">
+        <v>233</v>
+      </c>
+      <c r="I50">
+        <v>216</v>
+      </c>
+      <c r="J50">
+        <v>445</v>
+      </c>
+      <c r="K50">
+        <v>234</v>
+      </c>
+      <c r="L50">
+        <v>216</v>
+      </c>
+      <c r="M50">
+        <v>446</v>
+      </c>
+      <c r="N50">
+        <v>233</v>
+      </c>
+      <c r="O50">
+        <v>217</v>
+      </c>
+      <c r="P50">
+        <v>446</v>
+      </c>
+      <c r="Q50">
+        <v>233</v>
+      </c>
+      <c r="R50">
+        <v>216</v>
+      </c>
+      <c r="S50">
+        <v>445</v>
+      </c>
+      <c r="T50">
+        <v>232</v>
+      </c>
+      <c r="U50">
+        <v>215</v>
+      </c>
+      <c r="V50">
+        <v>449</v>
+      </c>
+      <c r="W50">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>794</v>
+      </c>
+      <c r="D51">
+        <v>519</v>
+      </c>
+      <c r="E51">
+        <v>209.5</v>
+      </c>
+      <c r="F51">
+        <v>794</v>
+      </c>
+      <c r="G51">
+        <v>518</v>
+      </c>
+      <c r="H51">
+        <v>210</v>
+      </c>
+      <c r="I51">
+        <v>796</v>
+      </c>
+      <c r="J51">
+        <v>519</v>
+      </c>
+      <c r="K51">
+        <v>210</v>
+      </c>
+      <c r="L51">
+        <v>791</v>
+      </c>
+      <c r="M51">
+        <v>519</v>
+      </c>
+      <c r="N51">
+        <v>209</v>
+      </c>
+      <c r="O51">
+        <v>792</v>
+      </c>
+      <c r="P51">
+        <v>519</v>
+      </c>
+      <c r="Q51">
+        <v>209</v>
+      </c>
+      <c r="R51">
+        <v>795</v>
+      </c>
+      <c r="S51">
+        <v>519</v>
+      </c>
+      <c r="T51">
+        <v>209</v>
+      </c>
+      <c r="U51">
+        <v>794</v>
+      </c>
+      <c r="V51">
+        <v>519</v>
+      </c>
+      <c r="W51">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>784</v>
+      </c>
+      <c r="D52">
+        <v>544</v>
+      </c>
+      <c r="E52">
+        <v>205</v>
+      </c>
+      <c r="F52">
+        <v>784</v>
+      </c>
+      <c r="G52">
+        <v>544</v>
+      </c>
+      <c r="H52">
+        <v>205</v>
+      </c>
+      <c r="I52">
+        <v>784</v>
+      </c>
+      <c r="J52">
+        <v>544</v>
+      </c>
+      <c r="K52">
+        <v>205</v>
+      </c>
+      <c r="L52">
+        <v>785</v>
+      </c>
+      <c r="M52">
+        <v>544</v>
+      </c>
+      <c r="N52">
+        <v>205</v>
+      </c>
+      <c r="O52">
+        <v>784</v>
+      </c>
+      <c r="P52">
+        <v>544</v>
+      </c>
+      <c r="Q52">
+        <v>205</v>
+      </c>
+      <c r="R52">
+        <v>784</v>
+      </c>
+      <c r="S52">
+        <v>544</v>
+      </c>
+      <c r="T52">
+        <v>205</v>
+      </c>
+      <c r="U52">
+        <v>784</v>
+      </c>
+      <c r="V52">
+        <v>544</v>
+      </c>
+      <c r="W52">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>256</v>
+      </c>
+      <c r="D53">
+        <v>550</v>
+      </c>
+      <c r="E53">
+        <v>241</v>
+      </c>
+      <c r="F53">
+        <v>256</v>
+      </c>
+      <c r="G53">
+        <v>550</v>
+      </c>
+      <c r="H53">
+        <v>241</v>
+      </c>
+      <c r="I53">
+        <v>254</v>
+      </c>
+      <c r="J53">
+        <v>550</v>
+      </c>
+      <c r="K53">
+        <v>242</v>
+      </c>
+      <c r="L53">
+        <v>259</v>
+      </c>
+      <c r="M53">
+        <v>551</v>
+      </c>
+      <c r="N53">
+        <v>241</v>
+      </c>
+      <c r="O53">
+        <v>257</v>
+      </c>
+      <c r="P53">
+        <v>550</v>
+      </c>
+      <c r="Q53">
+        <v>241</v>
+      </c>
+      <c r="R53">
+        <v>256</v>
+      </c>
+      <c r="S53">
+        <v>551</v>
+      </c>
+      <c r="T53">
+        <v>239</v>
+      </c>
+      <c r="U53">
+        <v>255</v>
+      </c>
+      <c r="V53">
+        <v>550</v>
+      </c>
+      <c r="W53">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>264.5</v>
+      </c>
+      <c r="D54">
+        <v>574.5</v>
+      </c>
+      <c r="E54">
+        <v>233</v>
+      </c>
+      <c r="F54">
+        <v>264</v>
+      </c>
+      <c r="G54">
+        <v>574</v>
+      </c>
+      <c r="H54">
+        <v>233</v>
+      </c>
+      <c r="I54">
+        <v>265</v>
+      </c>
+      <c r="J54">
+        <v>573</v>
+      </c>
+      <c r="K54">
+        <v>233</v>
+      </c>
+      <c r="L54">
+        <v>264</v>
+      </c>
+      <c r="M54">
+        <v>575</v>
+      </c>
+      <c r="N54">
+        <v>234</v>
+      </c>
+      <c r="O54">
+        <v>265</v>
+      </c>
+      <c r="P54">
+        <v>575</v>
+      </c>
+      <c r="Q54">
+        <v>233</v>
+      </c>
+      <c r="R54">
+        <v>263</v>
+      </c>
+      <c r="S54">
+        <v>567</v>
+      </c>
+      <c r="T54">
+        <v>233</v>
+      </c>
+      <c r="U54">
+        <v>265</v>
+      </c>
+      <c r="V54">
+        <v>575</v>
+      </c>
+      <c r="W54">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>782.5</v>
+      </c>
+      <c r="D55">
+        <v>490</v>
+      </c>
+      <c r="E55">
+        <v>250.5</v>
+      </c>
+      <c r="F55">
+        <v>784</v>
+      </c>
+      <c r="G55">
+        <v>490</v>
+      </c>
+      <c r="H55">
+        <v>251</v>
+      </c>
+      <c r="I55">
+        <v>784</v>
+      </c>
+      <c r="J55">
+        <v>490</v>
+      </c>
+      <c r="K55">
+        <v>250</v>
+      </c>
+      <c r="L55">
+        <v>781</v>
+      </c>
+      <c r="M55">
+        <v>491</v>
+      </c>
+      <c r="N55">
+        <v>251</v>
+      </c>
+      <c r="O55">
+        <v>781</v>
+      </c>
+      <c r="P55">
+        <v>489</v>
+      </c>
+      <c r="Q55">
+        <v>251</v>
+      </c>
+      <c r="R55">
+        <v>782</v>
+      </c>
+      <c r="S55">
+        <v>491</v>
+      </c>
+      <c r="T55">
+        <v>250</v>
+      </c>
+      <c r="U55">
+        <v>783</v>
+      </c>
+      <c r="V55">
+        <v>490</v>
+      </c>
+      <c r="W55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>773</v>
+      </c>
+      <c r="D56">
+        <v>516</v>
+      </c>
+      <c r="E56">
+        <v>242</v>
+      </c>
+      <c r="F56">
+        <v>773</v>
+      </c>
+      <c r="G56">
+        <v>516</v>
+      </c>
+      <c r="H56">
+        <v>243</v>
+      </c>
+      <c r="I56">
+        <v>772</v>
+      </c>
+      <c r="J56">
+        <v>515</v>
+      </c>
+      <c r="K56">
+        <v>242</v>
+      </c>
+      <c r="L56">
+        <v>773</v>
+      </c>
+      <c r="M56">
+        <v>516</v>
+      </c>
+      <c r="N56">
+        <v>243</v>
+      </c>
+      <c r="O56">
+        <v>772</v>
+      </c>
+      <c r="P56">
+        <v>516</v>
+      </c>
+      <c r="Q56">
+        <v>242</v>
+      </c>
+      <c r="R56">
+        <v>774</v>
+      </c>
+      <c r="S56">
+        <v>516</v>
+      </c>
+      <c r="T56">
+        <v>241</v>
+      </c>
+      <c r="U56">
+        <v>773</v>
+      </c>
+      <c r="V56">
+        <v>515</v>
+      </c>
+      <c r="W56">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>242.5</v>
+      </c>
+      <c r="D57">
+        <v>521.5</v>
+      </c>
+      <c r="E57">
+        <v>259</v>
+      </c>
+      <c r="F57">
+        <v>242</v>
+      </c>
+      <c r="G57">
+        <v>522</v>
+      </c>
+      <c r="H57">
+        <v>259</v>
+      </c>
+      <c r="I57">
+        <v>241</v>
+      </c>
+      <c r="J57">
+        <v>522</v>
+      </c>
+      <c r="K57">
+        <v>259</v>
+      </c>
+      <c r="L57">
+        <v>244</v>
+      </c>
+      <c r="M57">
+        <v>521</v>
+      </c>
+      <c r="N57">
+        <v>258</v>
+      </c>
+      <c r="O57">
+        <v>243</v>
+      </c>
+      <c r="P57">
+        <v>521</v>
+      </c>
+      <c r="Q57">
+        <v>259</v>
+      </c>
+      <c r="R57">
+        <v>243</v>
+      </c>
+      <c r="S57">
+        <v>522</v>
+      </c>
+      <c r="T57">
+        <v>258</v>
+      </c>
+      <c r="U57">
+        <v>241</v>
+      </c>
+      <c r="V57">
+        <v>521</v>
+      </c>
+      <c r="W57">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>252</v>
+      </c>
+      <c r="D58">
+        <v>546</v>
+      </c>
+      <c r="E58">
+        <v>250.5</v>
+      </c>
+      <c r="F58">
+        <v>252</v>
+      </c>
+      <c r="G58">
+        <v>547</v>
+      </c>
+      <c r="H58">
+        <v>252</v>
+      </c>
+      <c r="I58">
+        <v>254</v>
+      </c>
+      <c r="J58">
+        <v>546</v>
+      </c>
+      <c r="K58">
+        <v>251</v>
+      </c>
+      <c r="L58">
+        <v>252</v>
+      </c>
+      <c r="M58">
+        <v>546</v>
+      </c>
+      <c r="N58">
+        <v>249</v>
+      </c>
+      <c r="O58">
+        <v>255</v>
+      </c>
+      <c r="P58">
+        <v>545</v>
+      </c>
+      <c r="Q58">
+        <v>250</v>
+      </c>
+      <c r="R58">
+        <v>252</v>
+      </c>
+      <c r="S58">
+        <v>545</v>
+      </c>
+      <c r="T58">
+        <v>250</v>
+      </c>
+      <c r="U58">
+        <v>252</v>
+      </c>
+      <c r="V58">
+        <v>546</v>
+      </c>
+      <c r="W58">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>18</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>785</v>
+      </c>
+      <c r="D59">
+        <v>443.5</v>
+      </c>
+      <c r="E59">
+        <v>258</v>
+      </c>
+      <c r="F59">
+        <v>786</v>
+      </c>
+      <c r="G59">
+        <v>444</v>
+      </c>
+      <c r="H59">
+        <v>258</v>
+      </c>
+      <c r="I59">
+        <v>786</v>
+      </c>
+      <c r="J59">
+        <v>443</v>
+      </c>
+      <c r="K59">
+        <v>258</v>
+      </c>
+      <c r="L59">
+        <v>781</v>
+      </c>
+      <c r="M59">
+        <v>443</v>
+      </c>
+      <c r="N59">
+        <v>258</v>
+      </c>
+      <c r="O59">
+        <v>783</v>
+      </c>
+      <c r="P59">
+        <v>442</v>
+      </c>
+      <c r="Q59">
+        <v>258</v>
+      </c>
+      <c r="R59">
+        <v>784</v>
+      </c>
+      <c r="S59">
+        <v>445</v>
+      </c>
+      <c r="T59">
+        <v>256</v>
+      </c>
+      <c r="U59">
+        <v>787</v>
+      </c>
+      <c r="V59">
+        <v>444</v>
+      </c>
+      <c r="W59">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>770</v>
+      </c>
+      <c r="D60">
+        <v>466</v>
+      </c>
+      <c r="E60">
+        <v>249</v>
+      </c>
+      <c r="F60">
+        <v>770</v>
+      </c>
+      <c r="G60">
+        <v>467</v>
+      </c>
+      <c r="H60">
+        <v>249</v>
+      </c>
+      <c r="I60">
+        <v>770</v>
+      </c>
+      <c r="J60">
+        <v>466</v>
+      </c>
+      <c r="K60">
+        <v>249</v>
+      </c>
+      <c r="L60">
+        <v>770</v>
+      </c>
+      <c r="M60">
+        <v>466</v>
+      </c>
+      <c r="N60">
+        <v>249</v>
+      </c>
+      <c r="O60">
+        <v>769</v>
+      </c>
+      <c r="P60">
+        <v>466</v>
+      </c>
+      <c r="Q60">
+        <v>249</v>
+      </c>
+      <c r="R60">
+        <v>771</v>
+      </c>
+      <c r="S60">
+        <v>466</v>
+      </c>
+      <c r="T60">
+        <v>249</v>
+      </c>
+      <c r="U60">
+        <v>771</v>
+      </c>
+      <c r="V60">
+        <v>466</v>
+      </c>
+      <c r="W60">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>233.5</v>
+      </c>
+      <c r="D61">
+        <v>414</v>
+      </c>
+      <c r="E61">
+        <v>255</v>
+      </c>
+      <c r="F61">
+        <v>234</v>
+      </c>
+      <c r="G61">
+        <v>415</v>
+      </c>
+      <c r="H61">
+        <v>254</v>
+      </c>
+      <c r="I61">
+        <v>232</v>
+      </c>
+      <c r="J61">
+        <v>414</v>
+      </c>
+      <c r="K61">
+        <v>255</v>
+      </c>
+      <c r="L61">
+        <v>235</v>
+      </c>
+      <c r="M61">
+        <v>414</v>
+      </c>
+      <c r="N61">
+        <v>255</v>
+      </c>
+      <c r="O61">
+        <v>235</v>
+      </c>
+      <c r="P61">
+        <v>414</v>
+      </c>
+      <c r="Q61">
+        <v>255</v>
+      </c>
+      <c r="R61">
+        <v>233</v>
+      </c>
+      <c r="S61">
+        <v>414</v>
+      </c>
+      <c r="T61">
+        <v>255</v>
+      </c>
+      <c r="U61">
+        <v>232</v>
+      </c>
+      <c r="V61">
+        <v>413</v>
+      </c>
+      <c r="W61">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>245</v>
+      </c>
+      <c r="D62">
+        <v>441</v>
+      </c>
+      <c r="E62">
+        <v>245.5</v>
+      </c>
+      <c r="F62">
+        <v>245</v>
+      </c>
+      <c r="G62">
+        <v>441</v>
+      </c>
+      <c r="H62">
+        <v>246</v>
+      </c>
+      <c r="I62">
+        <v>245</v>
+      </c>
+      <c r="J62">
+        <v>440</v>
+      </c>
+      <c r="K62">
+        <v>246</v>
+      </c>
+      <c r="L62">
+        <v>245</v>
+      </c>
+      <c r="M62">
+        <v>441</v>
+      </c>
+      <c r="N62">
+        <v>246</v>
+      </c>
+      <c r="O62">
+        <v>246</v>
+      </c>
+      <c r="P62">
+        <v>440</v>
+      </c>
+      <c r="Q62">
+        <v>245</v>
+      </c>
+      <c r="R62">
+        <v>243</v>
+      </c>
+      <c r="S62">
+        <v>441</v>
+      </c>
+      <c r="T62">
+        <v>245</v>
+      </c>
+      <c r="U62">
+        <v>243</v>
+      </c>
+      <c r="V62">
+        <v>442</v>
+      </c>
+      <c r="W62">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>744</v>
+      </c>
+      <c r="D63">
+        <v>492</v>
+      </c>
+      <c r="E63">
+        <v>198.5</v>
+      </c>
+      <c r="F63">
+        <v>744</v>
+      </c>
+      <c r="G63">
+        <v>492</v>
+      </c>
+      <c r="H63">
+        <v>198</v>
+      </c>
+      <c r="I63">
+        <v>745</v>
+      </c>
+      <c r="J63">
+        <v>492</v>
+      </c>
+      <c r="K63">
+        <v>199</v>
+      </c>
+      <c r="L63">
+        <v>740</v>
+      </c>
+      <c r="M63">
+        <v>491</v>
+      </c>
+      <c r="N63">
+        <v>199</v>
+      </c>
+      <c r="O63">
+        <v>741</v>
+      </c>
+      <c r="P63">
+        <v>492</v>
+      </c>
+      <c r="Q63">
+        <v>198</v>
+      </c>
+      <c r="R63">
+        <v>745</v>
+      </c>
+      <c r="S63">
+        <v>492</v>
+      </c>
+      <c r="T63">
+        <v>198</v>
+      </c>
+      <c r="U63">
+        <v>744</v>
+      </c>
+      <c r="V63">
+        <v>493</v>
+      </c>
+      <c r="W63">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>730.5</v>
+      </c>
+      <c r="D64">
+        <v>516.5</v>
+      </c>
+      <c r="E64">
+        <v>189.5</v>
+      </c>
+      <c r="F64">
+        <v>730</v>
+      </c>
+      <c r="G64">
+        <v>515</v>
+      </c>
+      <c r="H64">
+        <v>190</v>
+      </c>
+      <c r="I64">
+        <v>731</v>
+      </c>
+      <c r="J64">
+        <v>517</v>
+      </c>
+      <c r="K64">
+        <v>190</v>
+      </c>
+      <c r="L64">
+        <v>730</v>
+      </c>
+      <c r="M64">
+        <v>516</v>
+      </c>
+      <c r="N64">
+        <v>189</v>
+      </c>
+      <c r="O64">
+        <v>729</v>
+      </c>
+      <c r="P64">
+        <v>516</v>
+      </c>
+      <c r="Q64">
+        <v>189</v>
+      </c>
+      <c r="R64">
+        <v>731</v>
+      </c>
+      <c r="S64">
+        <v>517</v>
+      </c>
+      <c r="T64">
+        <v>189</v>
+      </c>
+      <c r="U64">
+        <v>732</v>
+      </c>
+      <c r="V64">
+        <v>518</v>
+      </c>
+      <c r="W64">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>258</v>
+      </c>
+      <c r="D65">
+        <v>462</v>
+      </c>
+      <c r="E65">
+        <v>222</v>
+      </c>
+      <c r="F65">
+        <v>256</v>
+      </c>
+      <c r="G65">
+        <v>461</v>
+      </c>
+      <c r="H65">
+        <v>223</v>
+      </c>
+      <c r="I65">
+        <v>257</v>
+      </c>
+      <c r="J65">
+        <v>462</v>
+      </c>
+      <c r="K65">
+        <v>223</v>
+      </c>
+      <c r="L65">
+        <v>258</v>
+      </c>
+      <c r="M65">
+        <v>462</v>
+      </c>
+      <c r="N65">
+        <v>222</v>
+      </c>
+      <c r="O65">
+        <v>258</v>
+      </c>
+      <c r="P65">
+        <v>461</v>
+      </c>
+      <c r="Q65">
+        <v>222</v>
+      </c>
+      <c r="R65">
+        <v>258</v>
+      </c>
+      <c r="S65">
+        <v>462</v>
+      </c>
+      <c r="T65">
+        <v>221</v>
+      </c>
+      <c r="U65">
+        <v>258</v>
+      </c>
+      <c r="V65">
+        <v>462</v>
+      </c>
+      <c r="W65">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>266.5</v>
+      </c>
+      <c r="D66">
+        <v>488</v>
+      </c>
+      <c r="E66">
+        <v>211</v>
+      </c>
+      <c r="F66">
+        <v>266</v>
+      </c>
+      <c r="G66">
+        <v>488</v>
+      </c>
+      <c r="H66">
+        <v>211</v>
+      </c>
+      <c r="I66">
+        <v>267</v>
+      </c>
+      <c r="J66">
+        <v>487</v>
+      </c>
+      <c r="K66">
+        <v>211</v>
+      </c>
+      <c r="L66">
+        <v>267</v>
+      </c>
+      <c r="M66">
+        <v>488</v>
+      </c>
+      <c r="N66">
+        <v>212</v>
+      </c>
+      <c r="O66">
+        <v>267</v>
+      </c>
+      <c r="P66">
+        <v>488</v>
+      </c>
+      <c r="Q66">
+        <v>212</v>
+      </c>
+      <c r="R66">
+        <v>265</v>
+      </c>
+      <c r="S66">
+        <v>490</v>
+      </c>
+      <c r="T66">
+        <v>211</v>
+      </c>
+      <c r="U66">
+        <v>265</v>
+      </c>
+      <c r="V66">
+        <v>490</v>
+      </c>
+      <c r="W66">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>20</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>817.5</v>
+      </c>
+      <c r="D67">
+        <v>527</v>
+      </c>
+      <c r="E67">
+        <v>254.5</v>
+      </c>
+      <c r="F67">
+        <v>818</v>
+      </c>
+      <c r="G67">
+        <v>528</v>
+      </c>
+      <c r="H67">
+        <v>255</v>
+      </c>
+      <c r="I67">
+        <v>818</v>
+      </c>
+      <c r="J67">
+        <v>527</v>
+      </c>
+      <c r="K67">
+        <v>255</v>
+      </c>
+      <c r="L67">
+        <v>815</v>
+      </c>
+      <c r="M67">
+        <v>527</v>
+      </c>
+      <c r="N67">
+        <v>253</v>
+      </c>
+      <c r="O67">
+        <v>815</v>
+      </c>
+      <c r="P67">
+        <v>527</v>
+      </c>
+      <c r="Q67">
+        <v>254</v>
+      </c>
+      <c r="R67">
+        <v>818</v>
+      </c>
+      <c r="S67">
+        <v>527</v>
+      </c>
+      <c r="T67">
+        <v>256</v>
+      </c>
+      <c r="U67">
+        <v>817</v>
+      </c>
+      <c r="V67">
+        <v>528</v>
+      </c>
+      <c r="W67">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>810</v>
+      </c>
+      <c r="D68">
+        <v>555</v>
+      </c>
+      <c r="E68">
+        <v>244</v>
+      </c>
+      <c r="F68">
+        <v>816</v>
+      </c>
+      <c r="G68">
+        <v>528</v>
+      </c>
+      <c r="H68">
+        <v>254</v>
+      </c>
+      <c r="I68">
+        <v>810</v>
+      </c>
+      <c r="J68">
+        <v>555</v>
+      </c>
+      <c r="K68">
+        <v>244</v>
+      </c>
+      <c r="L68">
+        <v>810</v>
+      </c>
+      <c r="M68">
+        <v>555</v>
+      </c>
+      <c r="N68">
+        <v>244</v>
+      </c>
+      <c r="O68">
+        <v>808</v>
+      </c>
+      <c r="P68">
+        <v>554</v>
+      </c>
+      <c r="Q68">
+        <v>244</v>
+      </c>
+      <c r="R68">
+        <v>814</v>
+      </c>
+      <c r="S68">
+        <v>556</v>
+      </c>
+      <c r="T68">
+        <v>243</v>
+      </c>
+      <c r="U68">
+        <v>810</v>
+      </c>
+      <c r="V68">
+        <v>555</v>
+      </c>
+      <c r="W68">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>233</v>
+      </c>
+      <c r="D69">
+        <v>490</v>
+      </c>
+      <c r="E69">
+        <v>215</v>
+      </c>
+      <c r="F69">
+        <v>233</v>
+      </c>
+      <c r="G69">
+        <v>490</v>
+      </c>
+      <c r="H69">
+        <v>215</v>
+      </c>
+      <c r="I69">
+        <v>232</v>
+      </c>
+      <c r="J69">
+        <v>489</v>
+      </c>
+      <c r="K69">
+        <v>215</v>
+      </c>
+      <c r="L69">
+        <v>233</v>
+      </c>
+      <c r="M69">
+        <v>490</v>
+      </c>
+      <c r="N69">
+        <v>215</v>
+      </c>
+      <c r="O69">
+        <v>233</v>
+      </c>
+      <c r="P69">
+        <v>490</v>
+      </c>
+      <c r="Q69">
+        <v>215</v>
+      </c>
+      <c r="R69">
+        <v>232</v>
+      </c>
+      <c r="S69">
+        <v>490</v>
+      </c>
+      <c r="T69">
+        <v>214</v>
+      </c>
+      <c r="U69">
+        <v>233</v>
+      </c>
+      <c r="V69">
+        <v>489</v>
+      </c>
+      <c r="W69">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>238</v>
+      </c>
+      <c r="D70">
+        <v>517</v>
+      </c>
+      <c r="E70">
+        <v>206</v>
+      </c>
+      <c r="F70">
+        <v>238</v>
+      </c>
+      <c r="G70">
+        <v>517</v>
+      </c>
+      <c r="H70">
+        <v>207</v>
+      </c>
+      <c r="I70">
+        <v>239</v>
+      </c>
+      <c r="J70">
+        <v>516</v>
+      </c>
+      <c r="K70">
+        <v>206</v>
+      </c>
+      <c r="L70">
+        <v>238</v>
+      </c>
+      <c r="M70">
+        <v>519</v>
+      </c>
+      <c r="N70">
+        <v>207</v>
+      </c>
+      <c r="O70">
+        <v>239</v>
+      </c>
+      <c r="P70">
+        <v>518</v>
+      </c>
+      <c r="Q70">
+        <v>206</v>
+      </c>
+      <c r="R70">
+        <v>238</v>
+      </c>
+      <c r="S70">
+        <v>517</v>
+      </c>
+      <c r="T70">
+        <v>206</v>
+      </c>
+      <c r="U70">
+        <v>237</v>
+      </c>
+      <c r="V70">
+        <v>516</v>
+      </c>
+      <c r="W70">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>791.5</v>
+      </c>
+      <c r="D71">
+        <v>491</v>
+      </c>
+      <c r="E71">
+        <v>238</v>
+      </c>
+      <c r="F71">
+        <v>792</v>
+      </c>
+      <c r="G71">
+        <v>491</v>
+      </c>
+      <c r="H71">
+        <v>238</v>
+      </c>
+      <c r="I71">
+        <v>792</v>
+      </c>
+      <c r="J71">
+        <v>491</v>
+      </c>
+      <c r="K71">
+        <v>237</v>
+      </c>
+      <c r="L71">
+        <v>790</v>
+      </c>
+      <c r="M71">
+        <v>490</v>
+      </c>
+      <c r="N71">
+        <v>237</v>
+      </c>
+      <c r="O71">
+        <v>791</v>
+      </c>
+      <c r="P71">
+        <v>490</v>
+      </c>
+      <c r="Q71">
+        <v>238</v>
+      </c>
+      <c r="R71">
+        <v>794</v>
+      </c>
+      <c r="S71">
+        <v>491</v>
+      </c>
+      <c r="T71">
+        <v>238</v>
+      </c>
+      <c r="U71">
+        <v>791</v>
+      </c>
+      <c r="V71">
+        <v>492</v>
+      </c>
+      <c r="W71">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>778</v>
+      </c>
+      <c r="D72">
+        <v>515.5</v>
+      </c>
+      <c r="E72">
+        <v>232</v>
+      </c>
+      <c r="F72">
+        <v>777</v>
+      </c>
+      <c r="G72">
+        <v>515</v>
+      </c>
+      <c r="H72">
+        <v>233</v>
+      </c>
+      <c r="I72">
+        <v>778</v>
+      </c>
+      <c r="J72">
+        <v>514</v>
+      </c>
+      <c r="K72">
+        <v>232</v>
+      </c>
+      <c r="L72">
+        <v>777</v>
+      </c>
+      <c r="M72">
+        <v>515</v>
+      </c>
+      <c r="N72">
+        <v>233</v>
+      </c>
+      <c r="O72">
+        <v>778</v>
+      </c>
+      <c r="P72">
+        <v>516</v>
+      </c>
+      <c r="Q72">
+        <v>232</v>
+      </c>
+      <c r="R72">
+        <v>779</v>
+      </c>
+      <c r="S72">
+        <v>517</v>
+      </c>
+      <c r="T72">
+        <v>231</v>
+      </c>
+      <c r="U72">
+        <v>778</v>
+      </c>
+      <c r="V72">
+        <v>516</v>
+      </c>
+      <c r="W72">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>200</v>
+      </c>
+      <c r="D73">
+        <v>486</v>
+      </c>
+      <c r="E73">
+        <v>212</v>
+      </c>
+      <c r="F73">
+        <v>200</v>
+      </c>
+      <c r="G73">
+        <v>486</v>
+      </c>
+      <c r="H73">
+        <v>212</v>
+      </c>
+      <c r="I73">
+        <v>199</v>
+      </c>
+      <c r="J73">
+        <v>486</v>
+      </c>
+      <c r="K73">
+        <v>212</v>
+      </c>
+      <c r="L73">
+        <v>201</v>
+      </c>
+      <c r="M73">
+        <v>486</v>
+      </c>
+      <c r="N73">
+        <v>212</v>
+      </c>
+      <c r="O73">
+        <v>200</v>
+      </c>
+      <c r="P73">
+        <v>486</v>
+      </c>
+      <c r="Q73">
+        <v>211</v>
+      </c>
+      <c r="R73">
+        <v>200</v>
+      </c>
+      <c r="S73">
+        <v>487</v>
+      </c>
+      <c r="T73">
+        <v>212</v>
+      </c>
+      <c r="U73">
+        <v>199</v>
+      </c>
+      <c r="V73">
+        <v>488</v>
+      </c>
+      <c r="W73">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>209</v>
+      </c>
+      <c r="D74">
+        <v>512</v>
+      </c>
+      <c r="E74">
+        <v>204</v>
+      </c>
+      <c r="F74">
+        <v>209</v>
+      </c>
+      <c r="G74">
+        <v>512</v>
+      </c>
+      <c r="H74">
+        <v>204</v>
+      </c>
+      <c r="I74">
+        <v>209</v>
+      </c>
+      <c r="J74">
+        <v>512</v>
+      </c>
+      <c r="K74">
+        <v>204</v>
+      </c>
+      <c r="L74">
+        <v>210</v>
+      </c>
+      <c r="M74">
+        <v>512</v>
+      </c>
+      <c r="N74">
+        <v>204</v>
+      </c>
+      <c r="O74">
+        <v>210</v>
+      </c>
+      <c r="P74">
+        <v>512</v>
+      </c>
+      <c r="Q74">
+        <v>204</v>
+      </c>
+      <c r="R74">
+        <v>209</v>
+      </c>
+      <c r="S74">
+        <v>514</v>
+      </c>
+      <c r="T74">
+        <v>204</v>
+      </c>
+      <c r="U74">
+        <v>209</v>
+      </c>
+      <c r="V74">
+        <v>514</v>
+      </c>
+      <c r="W74">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>22</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>801</v>
+      </c>
+      <c r="D75">
+        <v>500</v>
+      </c>
+      <c r="E75">
+        <v>165</v>
+      </c>
+      <c r="F75">
+        <v>801</v>
+      </c>
+      <c r="G75">
+        <v>500</v>
+      </c>
+      <c r="H75">
+        <v>164</v>
+      </c>
+      <c r="I75">
+        <v>802</v>
+      </c>
+      <c r="J75">
+        <v>500</v>
+      </c>
+      <c r="K75">
+        <v>165</v>
+      </c>
+      <c r="L75">
+        <v>800</v>
+      </c>
+      <c r="M75">
+        <v>500</v>
+      </c>
+      <c r="N75">
+        <v>165</v>
+      </c>
+      <c r="O75">
+        <v>800</v>
+      </c>
+      <c r="P75">
+        <v>500</v>
+      </c>
+      <c r="Q75">
+        <v>165</v>
+      </c>
+      <c r="R75">
+        <v>801</v>
+      </c>
+      <c r="S75">
+        <v>500</v>
+      </c>
+      <c r="T75">
+        <v>165</v>
+      </c>
+      <c r="U75">
+        <v>802</v>
+      </c>
+      <c r="V75">
+        <v>502</v>
+      </c>
+      <c r="W75">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>788.5</v>
+      </c>
+      <c r="D76">
+        <v>518.5</v>
+      </c>
+      <c r="E76">
+        <v>153</v>
+      </c>
+      <c r="F76">
+        <v>788</v>
+      </c>
+      <c r="G76">
+        <v>518</v>
+      </c>
+      <c r="H76">
+        <v>153</v>
+      </c>
+      <c r="I76">
+        <v>789</v>
+      </c>
+      <c r="J76">
+        <v>519</v>
+      </c>
+      <c r="K76">
+        <v>153</v>
+      </c>
+      <c r="L76">
+        <v>788</v>
+      </c>
+      <c r="M76">
+        <v>518</v>
+      </c>
+      <c r="N76">
+        <v>152</v>
+      </c>
+      <c r="O76">
+        <v>787</v>
+      </c>
+      <c r="P76">
+        <v>518</v>
+      </c>
+      <c r="Q76">
+        <v>153</v>
+      </c>
+      <c r="R76">
+        <v>792</v>
+      </c>
+      <c r="S76">
+        <v>521</v>
+      </c>
+      <c r="T76">
+        <v>153</v>
+      </c>
+      <c r="U76">
+        <v>790</v>
+      </c>
+      <c r="V76">
+        <v>519</v>
+      </c>
+      <c r="W76">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>229.5</v>
+      </c>
+      <c r="D77">
+        <v>492</v>
+      </c>
+      <c r="E77">
+        <v>232</v>
+      </c>
+      <c r="F77">
+        <v>229</v>
+      </c>
+      <c r="G77">
+        <v>491</v>
+      </c>
+      <c r="H77">
+        <v>232</v>
+      </c>
+      <c r="I77">
+        <v>230</v>
+      </c>
+      <c r="J77">
+        <v>492</v>
+      </c>
+      <c r="K77">
+        <v>231</v>
+      </c>
+      <c r="L77">
+        <v>231</v>
+      </c>
+      <c r="M77">
+        <v>492</v>
+      </c>
+      <c r="N77">
+        <v>232</v>
+      </c>
+      <c r="O77">
+        <v>231</v>
+      </c>
+      <c r="P77">
+        <v>492</v>
+      </c>
+      <c r="Q77">
+        <v>232</v>
+      </c>
+      <c r="R77">
+        <v>225</v>
+      </c>
+      <c r="S77">
+        <v>492</v>
+      </c>
+      <c r="T77">
+        <v>232</v>
+      </c>
+      <c r="U77">
+        <v>229</v>
+      </c>
+      <c r="V77">
+        <v>492</v>
+      </c>
+      <c r="W77">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>236</v>
+      </c>
+      <c r="D78">
+        <v>511</v>
+      </c>
+      <c r="E78">
+        <v>217</v>
+      </c>
+      <c r="F78">
+        <v>236</v>
+      </c>
+      <c r="G78">
+        <v>511</v>
+      </c>
+      <c r="H78">
+        <v>217</v>
+      </c>
+      <c r="I78">
+        <v>237</v>
+      </c>
+      <c r="J78">
+        <v>510</v>
+      </c>
+      <c r="K78">
+        <v>218</v>
+      </c>
+      <c r="L78">
+        <v>236</v>
+      </c>
+      <c r="M78">
+        <v>512</v>
+      </c>
+      <c r="N78">
+        <v>217</v>
+      </c>
+      <c r="O78">
+        <v>236</v>
+      </c>
+      <c r="P78">
+        <v>511</v>
+      </c>
+      <c r="Q78">
+        <v>216</v>
+      </c>
+      <c r="R78">
+        <v>235</v>
+      </c>
+      <c r="S78">
+        <v>512</v>
+      </c>
+      <c r="T78">
+        <v>216</v>
+      </c>
+      <c r="U78">
+        <v>235</v>
+      </c>
+      <c r="V78">
+        <v>510</v>
+      </c>
+      <c r="W78">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>769.5</v>
+      </c>
+      <c r="D79">
+        <v>561.5</v>
+      </c>
+      <c r="E79">
+        <v>210</v>
+      </c>
+      <c r="F79">
+        <v>769</v>
+      </c>
+      <c r="G79">
+        <v>562</v>
+      </c>
+      <c r="H79">
+        <v>210</v>
+      </c>
+      <c r="I79">
+        <v>770</v>
+      </c>
+      <c r="J79">
+        <v>561</v>
+      </c>
+      <c r="K79">
+        <v>210</v>
+      </c>
+      <c r="L79">
+        <v>768</v>
+      </c>
+      <c r="M79">
+        <v>561</v>
+      </c>
+      <c r="N79">
+        <v>210</v>
+      </c>
+      <c r="O79">
+        <v>769</v>
+      </c>
+      <c r="P79">
+        <v>561</v>
+      </c>
+      <c r="Q79">
+        <v>209</v>
+      </c>
+      <c r="R79">
+        <v>771</v>
+      </c>
+      <c r="S79">
+        <v>564</v>
+      </c>
+      <c r="T79">
+        <v>209</v>
+      </c>
+      <c r="U79">
+        <v>771</v>
+      </c>
+      <c r="V79">
+        <v>563</v>
+      </c>
+      <c r="W79">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>753</v>
+      </c>
+      <c r="D80">
+        <v>582</v>
+      </c>
+      <c r="E80">
+        <v>199</v>
+      </c>
+      <c r="F80">
+        <v>753</v>
+      </c>
+      <c r="G80">
+        <v>582</v>
+      </c>
+      <c r="H80">
+        <v>199</v>
+      </c>
+      <c r="I80">
+        <v>753</v>
+      </c>
+      <c r="J80">
+        <v>582</v>
+      </c>
+      <c r="K80">
+        <v>199</v>
+      </c>
+      <c r="L80">
+        <v>753</v>
+      </c>
+      <c r="M80">
+        <v>582</v>
+      </c>
+      <c r="N80">
+        <v>199</v>
+      </c>
+      <c r="O80">
+        <v>753</v>
+      </c>
+      <c r="P80">
+        <v>582</v>
+      </c>
+      <c r="Q80">
+        <v>199</v>
+      </c>
+      <c r="R80">
+        <v>754</v>
+      </c>
+      <c r="S80">
+        <v>584</v>
+      </c>
+      <c r="T80">
+        <v>199</v>
+      </c>
+      <c r="U80">
+        <v>755</v>
+      </c>
+      <c r="V80">
+        <v>583</v>
+      </c>
+      <c r="W80">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>238</v>
+      </c>
+      <c r="D81">
+        <v>522</v>
+      </c>
+      <c r="E81">
+        <v>255</v>
+      </c>
+      <c r="F81">
+        <v>235</v>
+      </c>
+      <c r="G81">
+        <v>523</v>
+      </c>
+      <c r="H81">
+        <v>255</v>
+      </c>
+      <c r="I81">
+        <v>238</v>
+      </c>
+      <c r="J81">
+        <v>522</v>
+      </c>
+      <c r="K81">
+        <v>255</v>
+      </c>
+      <c r="L81">
+        <v>239</v>
+      </c>
+      <c r="M81">
+        <v>522</v>
+      </c>
+      <c r="N81">
+        <v>255</v>
+      </c>
+      <c r="O81">
+        <v>239</v>
+      </c>
+      <c r="P81">
+        <v>522</v>
+      </c>
+      <c r="Q81">
+        <v>254</v>
+      </c>
+      <c r="R81">
+        <v>233</v>
+      </c>
+      <c r="S81">
+        <v>524</v>
+      </c>
+      <c r="T81">
+        <v>256</v>
+      </c>
+      <c r="U81">
+        <v>238</v>
+      </c>
+      <c r="V81">
+        <v>522</v>
+      </c>
+      <c r="W81">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>4</v>
+      </c>
+      <c r="C82">
+        <v>248</v>
+      </c>
+      <c r="D82">
+        <v>544</v>
+      </c>
+      <c r="E82">
+        <v>238</v>
+      </c>
+      <c r="F82">
+        <v>248</v>
+      </c>
+      <c r="G82">
+        <v>544</v>
+      </c>
+      <c r="H82">
+        <v>238</v>
+      </c>
+      <c r="I82">
+        <v>248</v>
+      </c>
+      <c r="J82">
+        <v>544</v>
+      </c>
+      <c r="K82">
+        <v>238</v>
+      </c>
+      <c r="L82">
+        <v>249</v>
+      </c>
+      <c r="M82">
+        <v>543</v>
+      </c>
+      <c r="N82">
+        <v>238</v>
+      </c>
+      <c r="O82">
+        <v>249</v>
+      </c>
+      <c r="P82">
+        <v>543</v>
+      </c>
+      <c r="Q82">
+        <v>238</v>
+      </c>
+      <c r="R82">
+        <v>248</v>
+      </c>
+      <c r="S82">
+        <v>544</v>
+      </c>
+      <c r="T82">
+        <v>239</v>
+      </c>
+      <c r="U82">
+        <v>247</v>
+      </c>
+      <c r="V82">
+        <v>544</v>
+      </c>
+      <c r="W82">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
